--- a/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO.txt-total-recap.xlsx
+++ b/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,7 @@
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,37 +488,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Line count</t>
+          <t>Characters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Word count</t>
+          <t>Blocks (50)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>All characters</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No space</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No punctuation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No space, no punctuation</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>No apostrophe</t>
+          <t>Blocks (40)</t>
         </is>
       </c>
     </row>
@@ -533,25 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>189</v>
-      </c>
-      <c r="E4" t="n">
-        <v>159</v>
-      </c>
-      <c r="F4" t="n">
-        <v>170</v>
-      </c>
-      <c r="G4" t="n">
-        <v>140</v>
-      </c>
-      <c r="H4" t="n">
-        <v>189</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +525,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
-      </c>
-      <c r="E5" t="n">
-        <v>128</v>
-      </c>
-      <c r="F5" t="n">
-        <v>142</v>
-      </c>
-      <c r="G5" t="n">
-        <v>116</v>
-      </c>
-      <c r="H5" t="n">
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -589,25 +541,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -617,25 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181</v>
+        <v>4192</v>
       </c>
       <c r="C7" t="n">
-        <v>815</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>4192</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3558</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3945</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3311</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +573,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>2670</v>
       </c>
       <c r="C8" t="n">
-        <v>733</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>2724</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2085</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2708</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2069</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2685</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +589,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>208</v>
+        <v>4488</v>
       </c>
       <c r="C9" t="n">
-        <v>926</v>
+        <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>4488</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3770</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4166</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3448</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4412</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -701,25 +605,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>1646</v>
       </c>
       <c r="C10" t="n">
-        <v>330</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>1646</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1391</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1548</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1293</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1622</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -729,25 +621,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203</v>
+        <v>4159</v>
       </c>
       <c r="C11" t="n">
-        <v>877</v>
+        <v>84</v>
       </c>
       <c r="D11" t="n">
-        <v>4159</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3485</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3862</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3188</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4092</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -757,25 +637,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90</v>
+        <v>1959</v>
       </c>
       <c r="C12" t="n">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>1959</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1842</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1543</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1925</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -785,25 +653,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="C13" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>316</v>
-      </c>
-      <c r="E13" t="n">
-        <v>263</v>
-      </c>
-      <c r="F13" t="n">
-        <v>293</v>
-      </c>
-      <c r="G13" t="n">
-        <v>240</v>
-      </c>
-      <c r="H13" t="n">
-        <v>314</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -813,25 +669,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>101</v>
-      </c>
-      <c r="E14" t="n">
-        <v>90</v>
-      </c>
-      <c r="F14" t="n">
-        <v>94</v>
-      </c>
-      <c r="G14" t="n">
-        <v>83</v>
-      </c>
-      <c r="H14" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -841,25 +685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
-      </c>
-      <c r="E15" t="n">
-        <v>55</v>
-      </c>
-      <c r="F15" t="n">
-        <v>57</v>
-      </c>
-      <c r="G15" t="n">
-        <v>49</v>
-      </c>
-      <c r="H15" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -869,25 +701,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>42</v>
-      </c>
-      <c r="F16" t="n">
-        <v>47</v>
-      </c>
-      <c r="G16" t="n">
-        <v>39</v>
-      </c>
-      <c r="H16" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -897,25 +717,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>202</v>
-      </c>
-      <c r="E17" t="n">
-        <v>175</v>
-      </c>
-      <c r="F17" t="n">
-        <v>195</v>
-      </c>
-      <c r="G17" t="n">
-        <v>168</v>
-      </c>
-      <c r="H17" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -925,25 +733,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71</v>
+        <v>1427</v>
       </c>
       <c r="C18" t="n">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>1427</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1208</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1330</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1111</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1397</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -953,25 +749,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
-      </c>
-      <c r="E19" t="n">
-        <v>66</v>
-      </c>
-      <c r="F19" t="n">
-        <v>66</v>
-      </c>
-      <c r="G19" t="n">
-        <v>57</v>
-      </c>
-      <c r="H19" t="n">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -981,25 +765,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="C20" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>397</v>
-      </c>
-      <c r="E20" t="n">
-        <v>335</v>
-      </c>
-      <c r="F20" t="n">
-        <v>367</v>
-      </c>
-      <c r="G20" t="n">
-        <v>305</v>
-      </c>
-      <c r="H20" t="n">
-        <v>393</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1009,25 +781,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>206</v>
-      </c>
-      <c r="E21" t="n">
-        <v>173</v>
-      </c>
-      <c r="F21" t="n">
-        <v>201</v>
-      </c>
-      <c r="G21" t="n">
-        <v>168</v>
-      </c>
-      <c r="H21" t="n">
-        <v>205</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1037,25 +797,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
-      </c>
-      <c r="E22" t="n">
-        <v>51</v>
-      </c>
-      <c r="F22" t="n">
-        <v>53</v>
-      </c>
-      <c r="G22" t="n">
-        <v>45</v>
-      </c>
-      <c r="H22" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1065,25 +813,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>157</v>
-      </c>
-      <c r="E23" t="n">
-        <v>135</v>
-      </c>
-      <c r="F23" t="n">
-        <v>146</v>
-      </c>
-      <c r="G23" t="n">
-        <v>124</v>
-      </c>
-      <c r="H23" t="n">
-        <v>155</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1093,25 +829,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>416</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>416</v>
-      </c>
-      <c r="E24" t="n">
-        <v>350</v>
-      </c>
-      <c r="F24" t="n">
-        <v>392</v>
-      </c>
-      <c r="G24" t="n">
-        <v>326</v>
-      </c>
-      <c r="H24" t="n">
-        <v>408</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1121,25 +845,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>89</v>
-      </c>
-      <c r="E25" t="n">
-        <v>77</v>
-      </c>
-      <c r="F25" t="n">
-        <v>81</v>
-      </c>
-      <c r="G25" t="n">
-        <v>69</v>
-      </c>
-      <c r="H25" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1149,25 +861,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="C26" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>260</v>
-      </c>
-      <c r="E26" t="n">
-        <v>221</v>
-      </c>
-      <c r="F26" t="n">
-        <v>243</v>
-      </c>
-      <c r="G26" t="n">
-        <v>204</v>
-      </c>
-      <c r="H26" t="n">
-        <v>255</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1177,25 +877,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>322</v>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>322</v>
-      </c>
-      <c r="E27" t="n">
-        <v>281</v>
-      </c>
-      <c r="F27" t="n">
-        <v>302</v>
-      </c>
-      <c r="G27" t="n">
-        <v>261</v>
-      </c>
-      <c r="H27" t="n">
-        <v>318</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1205,25 +893,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
-      </c>
-      <c r="E28" t="n">
-        <v>22</v>
-      </c>
-      <c r="F28" t="n">
-        <v>24</v>
-      </c>
-      <c r="G28" t="n">
-        <v>20</v>
-      </c>
-      <c r="H28" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1233,25 +909,13 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="n">
-        <v>6</v>
-      </c>
       <c r="D29" t="n">
-        <v>32</v>
-      </c>
-      <c r="E29" t="n">
-        <v>27</v>
-      </c>
-      <c r="F29" t="n">
-        <v>29</v>
-      </c>
-      <c r="G29" t="n">
-        <v>24</v>
-      </c>
-      <c r="H29" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1261,25 +925,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>314</v>
       </c>
       <c r="C30" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>314</v>
-      </c>
-      <c r="E30" t="n">
-        <v>263</v>
-      </c>
-      <c r="F30" t="n">
-        <v>304</v>
-      </c>
-      <c r="G30" t="n">
-        <v>253</v>
-      </c>
-      <c r="H30" t="n">
-        <v>307</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1289,25 +941,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>86</v>
-      </c>
-      <c r="E31" t="n">
-        <v>72</v>
-      </c>
-      <c r="F31" t="n">
-        <v>81</v>
-      </c>
-      <c r="G31" t="n">
-        <v>67</v>
-      </c>
-      <c r="H31" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1317,25 +957,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>69</v>
-      </c>
-      <c r="E32" t="n">
-        <v>59</v>
-      </c>
-      <c r="F32" t="n">
-        <v>67</v>
-      </c>
-      <c r="G32" t="n">
-        <v>57</v>
-      </c>
-      <c r="H32" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1345,25 +973,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>45</v>
-      </c>
-      <c r="E33" t="n">
-        <v>38</v>
-      </c>
-      <c r="F33" t="n">
-        <v>40</v>
-      </c>
-      <c r="G33" t="n">
-        <v>33</v>
-      </c>
-      <c r="H33" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1373,25 +989,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C34" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>53</v>
-      </c>
-      <c r="E34" t="n">
-        <v>41</v>
-      </c>
-      <c r="F34" t="n">
-        <v>46</v>
-      </c>
-      <c r="G34" t="n">
-        <v>34</v>
-      </c>
-      <c r="H34" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1401,31 +1005,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>21</v>
+      </c>
+      <c r="C35" t="n">
         <v>1</v>
       </c>
-      <c r="C35" t="n">
-        <v>4</v>
-      </c>
       <c r="D35" t="n">
-        <v>21</v>
-      </c>
-      <c r="E35" t="n">
-        <v>18</v>
-      </c>
-      <c r="F35" t="n">
-        <v>21</v>
-      </c>
-      <c r="G35" t="n">
-        <v>18</v>
-      </c>
-      <c r="H35" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO.txt-total-recap.xlsx
+++ b/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,8 +470,7 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,11 +495,6 @@
           <t>Blocks (50)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Blocks (40)</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,9 +508,6 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -530,9 +521,6 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -546,9 +534,6 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -562,9 +547,6 @@
       <c r="C7" t="n">
         <v>84</v>
       </c>
-      <c r="D7" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -578,9 +560,6 @@
       <c r="C8" t="n">
         <v>54</v>
       </c>
-      <c r="D8" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -594,9 +573,6 @@
       <c r="C9" t="n">
         <v>90</v>
       </c>
-      <c r="D9" t="n">
-        <v>113</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -610,9 +586,6 @@
       <c r="C10" t="n">
         <v>33</v>
       </c>
-      <c r="D10" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -626,9 +599,6 @@
       <c r="C11" t="n">
         <v>84</v>
       </c>
-      <c r="D11" t="n">
-        <v>104</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -642,9 +612,6 @@
       <c r="C12" t="n">
         <v>40</v>
       </c>
-      <c r="D12" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -658,9 +625,6 @@
       <c r="C13" t="n">
         <v>7</v>
       </c>
-      <c r="D13" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -674,9 +638,6 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -690,9 +651,6 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -706,9 +664,6 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -722,9 +677,6 @@
       <c r="C17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,9 +690,6 @@
       <c r="C18" t="n">
         <v>29</v>
       </c>
-      <c r="D18" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -754,9 +703,6 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -770,9 +716,6 @@
       <c r="C20" t="n">
         <v>8</v>
       </c>
-      <c r="D20" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -786,9 +729,6 @@
       <c r="C21" t="n">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -802,9 +742,6 @@
       <c r="C22" t="n">
         <v>2</v>
       </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -818,9 +755,6 @@
       <c r="C23" t="n">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -834,9 +768,6 @@
       <c r="C24" t="n">
         <v>9</v>
       </c>
-      <c r="D24" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -850,9 +781,6 @@
       <c r="C25" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -866,9 +794,6 @@
       <c r="C26" t="n">
         <v>6</v>
       </c>
-      <c r="D26" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -882,9 +807,6 @@
       <c r="C27" t="n">
         <v>7</v>
       </c>
-      <c r="D27" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -898,9 +820,6 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -914,9 +833,6 @@
       <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -930,9 +846,6 @@
       <c r="C30" t="n">
         <v>7</v>
       </c>
-      <c r="D30" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -946,9 +859,6 @@
       <c r="C31" t="n">
         <v>2</v>
       </c>
-      <c r="D31" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -962,9 +872,6 @@
       <c r="C32" t="n">
         <v>2</v>
       </c>
-      <c r="D32" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -978,9 +885,6 @@
       <c r="C33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -994,9 +898,6 @@
       <c r="C34" t="n">
         <v>2</v>
       </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1010,14 +911,11 @@
       <c r="C35" t="n">
         <v>1</v>
       </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO.txt-total-recap.xlsx
+++ b/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO.txt-total-recap.xlsx
@@ -462,6 +462,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -487,12 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Characters</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Blocks (50)</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
@@ -503,9 +501,6 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189</v>
-      </c>
-      <c r="C4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -516,9 +511,6 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154</v>
-      </c>
-      <c r="C5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -529,9 +521,6 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -542,9 +531,6 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4192</v>
-      </c>
-      <c r="C7" t="n">
         <v>84</v>
       </c>
     </row>
@@ -555,9 +541,6 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2670</v>
-      </c>
-      <c r="C8" t="n">
         <v>54</v>
       </c>
     </row>
@@ -568,9 +551,6 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4488</v>
-      </c>
-      <c r="C9" t="n">
         <v>90</v>
       </c>
     </row>
@@ -581,9 +561,6 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1646</v>
-      </c>
-      <c r="C10" t="n">
         <v>33</v>
       </c>
     </row>
@@ -594,9 +571,6 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4159</v>
-      </c>
-      <c r="C11" t="n">
         <v>84</v>
       </c>
     </row>
@@ -607,9 +581,6 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1959</v>
-      </c>
-      <c r="C12" t="n">
         <v>40</v>
       </c>
     </row>
@@ -620,9 +591,6 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>316</v>
-      </c>
-      <c r="C13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -633,9 +601,6 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101</v>
-      </c>
-      <c r="C14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -646,9 +611,6 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63</v>
-      </c>
-      <c r="C15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -659,9 +621,6 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -672,9 +631,6 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202</v>
-      </c>
-      <c r="C17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -685,9 +641,6 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1427</v>
-      </c>
-      <c r="C18" t="n">
         <v>29</v>
       </c>
     </row>
@@ -698,9 +651,6 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75</v>
-      </c>
-      <c r="C19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -711,9 +661,6 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>397</v>
-      </c>
-      <c r="C20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -724,9 +671,6 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206</v>
-      </c>
-      <c r="C21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -737,9 +681,6 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59</v>
-      </c>
-      <c r="C22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -750,9 +691,6 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>157</v>
-      </c>
-      <c r="C23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -763,9 +701,6 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>416</v>
-      </c>
-      <c r="C24" t="n">
         <v>9</v>
       </c>
     </row>
@@ -776,9 +711,6 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89</v>
-      </c>
-      <c r="C25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -789,9 +721,6 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>260</v>
-      </c>
-      <c r="C26" t="n">
         <v>6</v>
       </c>
     </row>
@@ -802,9 +731,6 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>322</v>
-      </c>
-      <c r="C27" t="n">
         <v>7</v>
       </c>
     </row>
@@ -815,9 +741,6 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,9 +751,6 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
-      </c>
-      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -841,9 +761,6 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>314</v>
-      </c>
-      <c r="C30" t="n">
         <v>7</v>
       </c>
     </row>
@@ -854,9 +771,6 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86</v>
-      </c>
-      <c r="C31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -867,9 +781,6 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69</v>
-      </c>
-      <c r="C32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -880,9 +791,6 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45</v>
-      </c>
-      <c r="C33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -893,9 +801,6 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53</v>
-      </c>
-      <c r="C34" t="n">
         <v>2</v>
       </c>
     </row>
@@ -906,9 +811,6 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
-      </c>
-      <c r="C35" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO.txt-total-recap.xlsx
+++ b/tmp/YOU CAN'T RUN FOREVER_SCRIPT_VO/YOU CAN'T RUN FOREVER_SCRIPT_VO.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -802,16 +802,6 @@
       </c>
       <c r="B34" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>32 - MAIN TITLE</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
